--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\Mapa_Op_Linhas\Conexoes Itapemirim\Conexoes-Itapemirim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147A81F0-75C0-43F2-AB35-CE275B8BC8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BF061-3F3F-4FEA-9C38-885024EC1D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FD068F9-8740-4818-AA5B-E8DE56681101}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7049" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9520" uniqueCount="496">
   <si>
     <t>SAO PAULO(SP) - MURIAE(MG)</t>
   </si>
@@ -1357,6 +1357,165 @@
   </si>
   <si>
     <t>ITAPEMIRIM</t>
+  </si>
+  <si>
+    <t>12-0763-00</t>
+  </si>
+  <si>
+    <t>12-9644-00</t>
+  </si>
+  <si>
+    <t>ANAPOLIS(GO) - FLORIANOPOLIS(SC)</t>
+  </si>
+  <si>
+    <t>GOIANIA(GO) - CABO FRIO(RJ)</t>
+  </si>
+  <si>
+    <t>EXPRESSO DIAMANTE</t>
+  </si>
+  <si>
+    <t>05-0242-00</t>
+  </si>
+  <si>
+    <t>ANDORINHA(BA) - PRAIA GRANDE(SP)</t>
+  </si>
+  <si>
+    <t>05-0255-00</t>
+  </si>
+  <si>
+    <t>HELIOPOLIS(BA) - PRAIA GRANDE(SP)</t>
+  </si>
+  <si>
+    <t>GIL TURISMO</t>
+  </si>
+  <si>
+    <t>CONCEICAO DAS ALAGOAS</t>
+  </si>
+  <si>
+    <t>VALINHOS</t>
+  </si>
+  <si>
+    <t>TABOAO DA SERRA</t>
+  </si>
+  <si>
+    <t>SAO JOSE DOS PINHAIS</t>
+  </si>
+  <si>
+    <t>ARAQUARI</t>
+  </si>
+  <si>
+    <t>PENHA</t>
+  </si>
+  <si>
+    <t>PORTO BELO</t>
+  </si>
+  <si>
+    <t>BIGUACU</t>
+  </si>
+  <si>
+    <t>SAO JOSE</t>
+  </si>
+  <si>
+    <t>SENADOR CANEDO</t>
+  </si>
+  <si>
+    <t>ARAGUARI</t>
+  </si>
+  <si>
+    <t>PORTO FERREIRA</t>
+  </si>
+  <si>
+    <t>CALDAS NOVAS</t>
+  </si>
+  <si>
+    <t>CORUMBAIBA</t>
+  </si>
+  <si>
+    <t>BARUERI</t>
+  </si>
+  <si>
+    <t>CABO FRIO</t>
+  </si>
+  <si>
+    <t>ANDORINHA</t>
+  </si>
+  <si>
+    <t>PRAIA GRANDE</t>
+  </si>
+  <si>
+    <t>CANSANCAO</t>
+  </si>
+  <si>
+    <t>ITIUBA</t>
+  </si>
+  <si>
+    <t>PONTO NOVO</t>
+  </si>
+  <si>
+    <t>FILADELFIA</t>
+  </si>
+  <si>
+    <t>VARZEA DA ROCA</t>
+  </si>
+  <si>
+    <t>BAIXA GRANDE</t>
+  </si>
+  <si>
+    <t>IPIRA</t>
+  </si>
+  <si>
+    <t>ITABERABA</t>
+  </si>
+  <si>
+    <t>IACU</t>
+  </si>
+  <si>
+    <t>JAGUAQUARA</t>
+  </si>
+  <si>
+    <t>PLANALTO</t>
+  </si>
+  <si>
+    <t>CANDIDO SALES</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>MONTES CLAROS</t>
+  </si>
+  <si>
+    <t>HELIOPOLIS</t>
+  </si>
+  <si>
+    <t>GUARULHOS</t>
+  </si>
+  <si>
+    <t>SAO VICENTE</t>
+  </si>
+  <si>
+    <t>PARIPIRANGA</t>
+  </si>
+  <si>
+    <t>ADUSTINA</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>BANZAE</t>
+  </si>
+  <si>
+    <t>TUCANO</t>
+  </si>
+  <si>
+    <t>ARACI</t>
+  </si>
+  <si>
+    <t>SERRINHA</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA</t>
   </si>
 </sst>
 </file>
@@ -1731,10 +1890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244146A7-190C-4F54-9984-CB127AC771FE}">
-  <dimension ref="A1:G1007"/>
+  <dimension ref="A1:G1360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G993" sqref="G993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1905,7 @@
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -24909,6 +25069,8125 @@
         <v>442</v>
       </c>
     </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1068" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1069" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1072" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1073" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1077" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1080" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1088" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1097" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1113" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1115" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1116" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1117" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1118" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1119" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1120" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1122" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1123" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1124" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1125" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1126" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1127" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1128" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1129" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1130" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1131" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1132" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1133" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1137" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1140" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1141" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1142" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1143" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1146" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1147" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1148" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1149" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1150" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1153" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1154" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1160" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1161" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1201" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1220" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1221" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1222" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1223" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1224" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1225" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1226" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1229" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1230" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1231" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1232" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1233" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1234" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1235" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1236" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1237" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1238" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1239" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1240" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1241" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1242" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1243" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1244" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1245" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1246" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1247" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1248" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1249" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1250" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1251" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1252" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1292" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1293" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1294" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1295" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1296" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1297" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1298" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1299" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1300" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1301" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1302" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1303" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1312" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1313" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1314" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1315" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1316" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1317" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1318" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1319" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1320" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1321" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1322" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1323" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1324" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1325" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1326" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1327" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1328" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1329" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1330" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1331" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1332" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1333" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1334" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1335" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1336" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1337" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1338" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1339" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1340" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1341" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1342" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1343" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1344" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1345" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1345" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1346" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1347" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1348" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1349" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1350" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1353" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1354" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1355" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1356" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1357" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1358" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1359" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1360" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1007" xr:uid="{244146A7-190C-4F54-9984-CB127AC771FE}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\Mapa_Op_Linhas\Conexoes Itapemirim\Conexoes-Itapemirim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BF061-3F3F-4FEA-9C38-885024EC1D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7EB60-B26F-4FCC-AD52-A4E7CB990162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FD068F9-8740-4818-AA5B-E8DE56681101}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9520" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7049" uniqueCount="443">
   <si>
     <t>SAO PAULO(SP) - MURIAE(MG)</t>
   </si>
@@ -1357,165 +1357,6 @@
   </si>
   <si>
     <t>ITAPEMIRIM</t>
-  </si>
-  <si>
-    <t>12-0763-00</t>
-  </si>
-  <si>
-    <t>12-9644-00</t>
-  </si>
-  <si>
-    <t>ANAPOLIS(GO) - FLORIANOPOLIS(SC)</t>
-  </si>
-  <si>
-    <t>GOIANIA(GO) - CABO FRIO(RJ)</t>
-  </si>
-  <si>
-    <t>EXPRESSO DIAMANTE</t>
-  </si>
-  <si>
-    <t>05-0242-00</t>
-  </si>
-  <si>
-    <t>ANDORINHA(BA) - PRAIA GRANDE(SP)</t>
-  </si>
-  <si>
-    <t>05-0255-00</t>
-  </si>
-  <si>
-    <t>HELIOPOLIS(BA) - PRAIA GRANDE(SP)</t>
-  </si>
-  <si>
-    <t>GIL TURISMO</t>
-  </si>
-  <si>
-    <t>CONCEICAO DAS ALAGOAS</t>
-  </si>
-  <si>
-    <t>VALINHOS</t>
-  </si>
-  <si>
-    <t>TABOAO DA SERRA</t>
-  </si>
-  <si>
-    <t>SAO JOSE DOS PINHAIS</t>
-  </si>
-  <si>
-    <t>ARAQUARI</t>
-  </si>
-  <si>
-    <t>PENHA</t>
-  </si>
-  <si>
-    <t>PORTO BELO</t>
-  </si>
-  <si>
-    <t>BIGUACU</t>
-  </si>
-  <si>
-    <t>SAO JOSE</t>
-  </si>
-  <si>
-    <t>SENADOR CANEDO</t>
-  </si>
-  <si>
-    <t>ARAGUARI</t>
-  </si>
-  <si>
-    <t>PORTO FERREIRA</t>
-  </si>
-  <si>
-    <t>CALDAS NOVAS</t>
-  </si>
-  <si>
-    <t>CORUMBAIBA</t>
-  </si>
-  <si>
-    <t>BARUERI</t>
-  </si>
-  <si>
-    <t>CABO FRIO</t>
-  </si>
-  <si>
-    <t>ANDORINHA</t>
-  </si>
-  <si>
-    <t>PRAIA GRANDE</t>
-  </si>
-  <si>
-    <t>CANSANCAO</t>
-  </si>
-  <si>
-    <t>ITIUBA</t>
-  </si>
-  <si>
-    <t>PONTO NOVO</t>
-  </si>
-  <si>
-    <t>FILADELFIA</t>
-  </si>
-  <si>
-    <t>VARZEA DA ROCA</t>
-  </si>
-  <si>
-    <t>BAIXA GRANDE</t>
-  </si>
-  <si>
-    <t>IPIRA</t>
-  </si>
-  <si>
-    <t>ITABERABA</t>
-  </si>
-  <si>
-    <t>IACU</t>
-  </si>
-  <si>
-    <t>JAGUAQUARA</t>
-  </si>
-  <si>
-    <t>PLANALTO</t>
-  </si>
-  <si>
-    <t>CANDIDO SALES</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>MONTES CLAROS</t>
-  </si>
-  <si>
-    <t>HELIOPOLIS</t>
-  </si>
-  <si>
-    <t>GUARULHOS</t>
-  </si>
-  <si>
-    <t>SAO VICENTE</t>
-  </si>
-  <si>
-    <t>PARIPIRANGA</t>
-  </si>
-  <si>
-    <t>ADUSTINA</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>BANZAE</t>
-  </si>
-  <si>
-    <t>TUCANO</t>
-  </si>
-  <si>
-    <t>ARACI</t>
-  </si>
-  <si>
-    <t>SERRINHA</t>
-  </si>
-  <si>
-    <t>SANTA BARBARA</t>
   </si>
 </sst>
 </file>
@@ -1890,11 +1731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244146A7-190C-4F54-9984-CB127AC771FE}">
-  <dimension ref="A1:G1360"/>
+  <dimension ref="A1:G1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G993" sqref="G993"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25069,8125 +24910,6 @@
         <v>442</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1008" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1008" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1008" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1008" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1008" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1009" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1009" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1009" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1009" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1009" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1010" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1010" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1010" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1010" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1010" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1011" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1011" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1011" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1011" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1011" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1012" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1012" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1012" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1012" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1012" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1012" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1013" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1013" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1013" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1013" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1013" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1013" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1014" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1014" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1014" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1014" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1014" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1015" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1015" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1015" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1015" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1015" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1016" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1016" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1016" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1016" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1017" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1017" t="s">
-        <v>389</v>
-      </c>
-      <c r="F1017" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1017" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1018" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1018" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1018" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1018" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1018" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1019" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1019" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1019" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1019" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1019" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1020" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1020" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1020" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1020" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1021" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1021" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1021" t="s">
-        <v>463</v>
-      </c>
-      <c r="F1021" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1021" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1022" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1022" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1022" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1022" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1022" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1022" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1022" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1023" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1023" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1023" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1023" t="s">
-        <v>331</v>
-      </c>
-      <c r="F1023" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1023" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1024" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1024" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1024" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1024" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1024" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1024" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1024" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1025" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1025" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1025" t="s">
-        <v>330</v>
-      </c>
-      <c r="F1025" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1025" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1026" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1026" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1026" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1026" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1026" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1026" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1027" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1027" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1027" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1027" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1027" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1028" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1028" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1028" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1028" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1028" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1028" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1028" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1029" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1029" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1029" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1029" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1029" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1029" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1029" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1030" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1030" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1030" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1030" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1030" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1030" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1030" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1031" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1031" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1031" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1031" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1031" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1031" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1032" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1032" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1032" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1032" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1032" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1032" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1032" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1033" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1033" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1033" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1033" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1033" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1033" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1034" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1034" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1034" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1034" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1034" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1035" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1035" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1035" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1035" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1035" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1035" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1036" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1036" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1036" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1036" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1036" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1036" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1037" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1037" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1037" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1037" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1037" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1038" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1038" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1038" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1038" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1038" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1038" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1039" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1039" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1039" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1039" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1039" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1039" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1040" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1040" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1040" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1040" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1040" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1040" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1041" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1041" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1041" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1041" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1041" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1042" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1042" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1042" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1042" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1042" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1042" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1043" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1043" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1043" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1043" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1043" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1043" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1044" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1044" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1044" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1044" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1044" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1044" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1045" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1045" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1045" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1045" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1045" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1046" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1046" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1046" t="s">
-        <v>463</v>
-      </c>
-      <c r="F1046" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1046" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1047" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1047" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1047" t="s">
-        <v>331</v>
-      </c>
-      <c r="F1047" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1047" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1048" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1048" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1048" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1048" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1048" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1049" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1049" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1049" t="s">
-        <v>330</v>
-      </c>
-      <c r="F1049" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1049" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1050" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1050" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1050" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1050" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1050" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1050" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1051" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1051" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1051" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1051" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1051" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1051" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1052" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1052" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1052" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1052" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1052" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1053" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1053" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1053" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1053" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1053" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1054" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1054" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1054" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1054" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1054" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1054" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1055" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1055" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1055" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1055" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1055" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1055" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1056" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1056" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1056" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1056" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1056" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1056" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1057" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1057" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1057" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1057" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1057" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1057" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1058" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1058" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1058" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1058" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1058" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1058" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1059" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1059" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1059" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1059" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1059" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1060" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1060" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1060" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1060" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1060" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1060" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1061" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1061" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1061" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1061" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1061" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1062" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1062" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1062" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1062" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1062" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1062" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1063" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1063" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1063" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1063" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1063" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1064" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1064" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1064" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1064" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1064" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1065" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1065" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1065" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1065" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1065" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1066" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1066" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1066" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1066" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1066" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1066" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1067" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1067" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1067" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1067" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1067" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1067" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1068" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1068" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1068" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1068" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1068" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1068" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1069" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1069" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1069" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1069" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1069" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1070" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1070" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1070" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1070" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1070" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1070" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1071" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1071" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1071" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1071" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1071" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1072" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1072" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1072" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1072" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1072" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1073" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1073" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1073" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1073" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1073" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1074" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1074" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1074" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1074" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1074" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1074" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1075" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1075" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1075" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1075" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1075" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1075" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1076" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1076" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1076" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1076" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1076" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1076" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1077" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1077" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1077" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1077" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1077" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1077" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1078" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1078" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1078" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1078" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1078" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1078" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1079" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1079" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1079" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1079" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1079" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1079" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1080" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1080" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1080" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1080" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1080" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1080" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1081" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1081" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1081" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1081" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1081" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1081" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1082" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1082" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1082" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1082" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1082" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1082" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1083" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1083" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1083" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1083" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1083" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1083" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1084" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1084" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1084" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1084" t="s">
-        <v>330</v>
-      </c>
-      <c r="F1084" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1084" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1085" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1085" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1085" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1085" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1085" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1085" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1086" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1086" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1086" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1086" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1086" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1086" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1087" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1087" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1087" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1087" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1087" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1087" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1088" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1088" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1088" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1088" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1088" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1088" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1089" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1089" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1089" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1089" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1089" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1089" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1090" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1090" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1090" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1090" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1090" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1090" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1091" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1091" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1091" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1091" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1091" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1091" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1092" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1092" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1092" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1092" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1092" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1092" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1093" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1093" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1093" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1093" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1093" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1093" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1094" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1094" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1094" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1094" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1094" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1095" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1095" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1095" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1095" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1095" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1095" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1096" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1096" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1096" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1096" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1096" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1096" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1097" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1097" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1097" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1097" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1097" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1097" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1098" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1098" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1098" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1098" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1098" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1098" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1098" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1099" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1099" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1099" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1099" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1099" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1099" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1100" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1100" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1100" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1100" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1100" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1100" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1100" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1101" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1101" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1101" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1101" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1101" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1101" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1102" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1102" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1102" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1102" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1102" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1102" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1103" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1103" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1103" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1103" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1103" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1103" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1104" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1104" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1104" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1104" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1104" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1104" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1105" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1105" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1105" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1105" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1105" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1105" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1106" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1106" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1106" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1106" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1106" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1106" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1107" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1107" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1107" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1107" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1107" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1107" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1108" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1108" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1108" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1108" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1108" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1108" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1109" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1109" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1109" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1109" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1109" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1109" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1110" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1110" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1110" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1110" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1110" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1111" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1111" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1111" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1111" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1111" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1112" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1112" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1112" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1112" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1112" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1112" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1113" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1113" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1113" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1113" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1113" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1113" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1114" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1114" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1114" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1114" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1114" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1114" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1115" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1115" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1115" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1115" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1115" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1115" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1116" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1116" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1116" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1116" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1116" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1116" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1117" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1117" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1117" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1117" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1117" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1118" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1118" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1118" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1118" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1118" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1119" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1119" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1119" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1119" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1119" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1120" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1120" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1120" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1120" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1120" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1120" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1121" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1121" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1121" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1121" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1121" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1121" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1122" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1122" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1122" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1122" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1122" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1122" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1123" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1123" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1123" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1123" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1123" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1124" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1124" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1124" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1124" t="s">
-        <v>389</v>
-      </c>
-      <c r="F1124" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1124" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1125" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1125" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1125" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1125" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1125" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1125" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1126" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1126" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1126" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1126" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1126" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1126" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1127" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1127" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1127" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1127" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1127" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1127" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1128" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1128" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1128" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1128" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1128" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1128" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1129" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1129" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1129" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1129" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1129" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1129" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1130" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1130" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1130" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1130" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1130" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1130" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1131" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1131" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1131" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1131" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1131" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1131" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1132" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1132" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1132" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1132" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1132" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1132" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1133" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1133" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1133" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1133" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1133" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1133" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1134" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1134" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1134" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1134" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1134" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1134" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1135" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1135" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1135" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1135" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1135" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1135" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1136" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1136" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1136" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1136" t="s">
-        <v>389</v>
-      </c>
-      <c r="F1136" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1136" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1137" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1137" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1137" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1137" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1137" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1137" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1138" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1138" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1138" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1138" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1138" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1138" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1139" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1139" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1139" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1139" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1139" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1139" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1140" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1140" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1140" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1140" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1140" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1140" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1141" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1141" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1141" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1141" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1141" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1141" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1142" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1142" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1142" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1142" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1142" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1142" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1143" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1143" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1143" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1143" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1143" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1143" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1144" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1144" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1144" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1144" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1144" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1144" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1145" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1145" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1145" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1145" t="s">
-        <v>457</v>
-      </c>
-      <c r="F1145" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1145" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1146" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1146" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1146" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1146" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1146" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1146" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1147" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1147" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1147" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1147" t="s">
-        <v>389</v>
-      </c>
-      <c r="F1147" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1147" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1148" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1148" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1148" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1148" t="s">
-        <v>459</v>
-      </c>
-      <c r="F1148" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1148" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1149" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1149" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1149" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1149" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1149" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1149" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1150" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1150" t="s">
-        <v>456</v>
-      </c>
-      <c r="D1150" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1150" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1150" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1150" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1151" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1151" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1151" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1151" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1151" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1151" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1152" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1152" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1152" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1152" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1152" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1152" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1153" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1153" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1153" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1153" t="s">
-        <v>467</v>
-      </c>
-      <c r="F1153" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1153" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1154" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1154" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1154" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1154" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1154" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1154" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1155" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1155" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1155" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1155" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1155" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1155" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1156" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1156" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1156" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1156" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1156" t="s">
-        <v>467</v>
-      </c>
-      <c r="F1156" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1156" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1157" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1157" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1157" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1157" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1157" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1157" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1158" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1158" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1158" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1158" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1158" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1158" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1159" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1159" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1159" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1159" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1159" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1159" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1160" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1160" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1160" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1160" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1160" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1160" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1160" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1161" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1161" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1161" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1161" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1161" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1161" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1162" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1162" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1162" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1162" t="s">
-        <v>467</v>
-      </c>
-      <c r="F1162" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1162" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1163" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1163" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1163" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1163" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1163" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1163" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1163" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1164" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1164" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1164" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1164" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1164" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1164" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1165" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1165" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1165" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1165" t="s">
-        <v>467</v>
-      </c>
-      <c r="F1165" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1165" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1166" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1166" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1166" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1166" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1166" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1166" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1166" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1167" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1167" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1167" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1167" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1167" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1167" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1168" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1168" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1168" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1168" t="s">
-        <v>467</v>
-      </c>
-      <c r="F1168" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1168" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1169" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1169" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1169" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1169" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1169" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1170" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1170" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1170" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1170" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1170" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1170" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1171" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1171" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1171" t="s">
-        <v>330</v>
-      </c>
-      <c r="F1171" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1171" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1172" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1172" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1172" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1172" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1172" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1172" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1172" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1173" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1173" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1173" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1173" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1173" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1173" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1173" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1174" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1174" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1174" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1174" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1174" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1174" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1174" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1175" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1175" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1175" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1175" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1175" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1175" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1175" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1176" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1176" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1176" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1176" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1176" t="s">
-        <v>467</v>
-      </c>
-      <c r="F1176" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1176" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1177" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1177" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1177" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1177" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1177" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1177" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1177" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1178" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1178" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1178" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1178" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1178" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1178" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1178" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1179" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1179" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1179" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1179" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1179" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1179" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1179" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1180" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1180" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1180" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1180" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1180" t="s">
-        <v>293</v>
-      </c>
-      <c r="F1180" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1180" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1181" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1181" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1181" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1181" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1181" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1181" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1181" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1182" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1182" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1182" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1182" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1182" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1182" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1183" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1183" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1183" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1183" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1183" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1183" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1183" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1184" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1184" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1184" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1184" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1184" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1184" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1184" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1185" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1185" t="s">
-        <v>453</v>
-      </c>
-      <c r="D1185" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1185" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1185" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1185" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1186" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1186" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1186" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1186" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1186" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1186" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1187" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1187" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1187" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1187" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1187" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1187" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1188" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1188" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1188" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1188" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1188" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1188" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1189" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1189" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1189" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1189" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1189" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1189" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1190" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1190" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1190" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1190" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1190" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1190" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1190" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1191" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1191" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1191" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1191" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1191" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1191" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1192" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1192" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1192" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1192" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1192" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1192" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1193" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1193" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1193" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1193" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1193" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1193" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1193" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1194" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1194" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1194" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1194" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1194" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1194" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1195" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1195" t="s">
-        <v>446</v>
-      </c>
-      <c r="C1195" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1195" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1195" t="s">
-        <v>468</v>
-      </c>
-      <c r="F1195" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1195" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1196" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1196" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1196" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1196" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1196" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1196" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1197" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1197" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1197" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1197" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1197" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1197" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1198" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1198" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1198" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1198" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1198" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1198" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1199" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1199" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1199" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1199" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1199" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1199" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1200" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1200" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1200" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1200" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1200" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1200" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1201" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1201" t="s">
-        <v>472</v>
-      </c>
-      <c r="D1201" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1201" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1201" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1201" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1202" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1202" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1202" t="s">
-        <v>472</v>
-      </c>
-      <c r="D1202" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1202" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1202" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1202" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1203" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1203" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1203" t="s">
-        <v>473</v>
-      </c>
-      <c r="D1203" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1203" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1203" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1203" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1204" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1204" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1204" t="s">
-        <v>473</v>
-      </c>
-      <c r="D1204" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1204" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1204" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1204" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1205" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1205" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1205" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1205" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1205" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1205" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1206" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1206" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1206" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1206" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1206" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1206" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1206" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1207" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1207" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1207" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1207" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1207" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1207" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1208" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1208" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1208" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1208" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1208" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1209" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1209" t="s">
-        <v>475</v>
-      </c>
-      <c r="D1209" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1209" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1209" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1209" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1210" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1210" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1210" t="s">
-        <v>475</v>
-      </c>
-      <c r="D1210" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1210" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1210" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1210" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1211" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1211" t="s">
-        <v>476</v>
-      </c>
-      <c r="D1211" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1211" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1211" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1211" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1212" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1212" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1212" t="s">
-        <v>476</v>
-      </c>
-      <c r="D1212" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1212" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1212" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1212" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1213" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1213" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1213" t="s">
-        <v>477</v>
-      </c>
-      <c r="D1213" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1213" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1213" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1213" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1214" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1214" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1214" t="s">
-        <v>477</v>
-      </c>
-      <c r="D1214" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1214" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1214" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1214" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1215" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1215" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1215" t="s">
-        <v>478</v>
-      </c>
-      <c r="D1215" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1215" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1215" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1215" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1216" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1216" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1216" t="s">
-        <v>478</v>
-      </c>
-      <c r="D1216" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1216" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1216" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1216" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1217" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1217" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1217" t="s">
-        <v>479</v>
-      </c>
-      <c r="D1217" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1217" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1217" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1217" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1218" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1218" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1218" t="s">
-        <v>479</v>
-      </c>
-      <c r="D1218" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1218" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1218" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1218" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1219" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1219" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1219" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1219" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1219" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1219" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1220" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1220" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1220" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1220" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1220" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1220" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1220" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1221" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1221" t="s">
-        <v>480</v>
-      </c>
-      <c r="D1221" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1221" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1221" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1221" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1222" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1222" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1222" t="s">
-        <v>480</v>
-      </c>
-      <c r="D1222" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1222" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1222" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1222" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1223" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1223" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1223" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1223" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1223" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1223" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1223" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1224" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1224" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1224" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1224" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1224" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1224" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1224" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1225" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1225" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1225" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1225" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1225" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1225" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1226" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1226" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1226" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1226" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1226" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1226" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1226" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1227" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1227" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1227" t="s">
-        <v>481</v>
-      </c>
-      <c r="D1227" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1227" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1227" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1227" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1228" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1228" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1228" t="s">
-        <v>481</v>
-      </c>
-      <c r="D1228" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1228" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1228" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1228" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1229" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1229" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1229" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1229" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1229" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1229" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1229" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1230" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1230" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1230" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1230" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1230" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1230" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1230" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1231" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1231" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1231" t="s">
-        <v>482</v>
-      </c>
-      <c r="D1231" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1231" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1231" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1231" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1232" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1232" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1232" t="s">
-        <v>482</v>
-      </c>
-      <c r="D1232" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1232" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1232" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1232" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1233" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1233" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1233" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1233" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1233" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1233" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1234" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1234" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1234" t="s">
-        <v>484</v>
-      </c>
-      <c r="D1234" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1234" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1234" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1234" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1235" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1235" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1235" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1235" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1235" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1235" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1236" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1236" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1236" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1236" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1236" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1236" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1237" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1237" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1237" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1237" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1237" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1237" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1238" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1238" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1238" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1238" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1238" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1238" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1238" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1239" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1239" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1239" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1239" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1239" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1239" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1239" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1240" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1240" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1240" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1240" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1240" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1240" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1240" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1241" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1241" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1241" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1241" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1241" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1241" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1241" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1242" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1242" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1242" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1242" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1242" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1242" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1242" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1243" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1243" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1243" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1243" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1243" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1243" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1243" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1244" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1244" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1244" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1244" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1244" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1244" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1244" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1245" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1245" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1245" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1245" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1245" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1245" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1245" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1246" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1246" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1246" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1246" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1246" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1246" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1247" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1247" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1247" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1247" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1247" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1247" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1247" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1248" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1248" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1248" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1248" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1248" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1248" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1248" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1249" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1249" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1249" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1249" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1249" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1249" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1249" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1250" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1250" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1250" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1250" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1250" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1250" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1250" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1251" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1251" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1251" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1251" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1251" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1251" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1252" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1252" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1252" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1252" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1252" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1252" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1252" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1253" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1253" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1253" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1253" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1253" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1253" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1253" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1254" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1254" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1254" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1254" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1254" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1254" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1255" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1255" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1255" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1255" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1255" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1255" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1255" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1256" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1256" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1256" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1256" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1256" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1256" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1257" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1257" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1257" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1257" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1257" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1257" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1257" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1258" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1258" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1258" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1258" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1258" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1258" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1258" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1259" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1259" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1259" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1259" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1259" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1259" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1259" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1260" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1260" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1260" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1260" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1260" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1260" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1260" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1261" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1261" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1261" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1261" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1261" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1261" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1262" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1262" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1262" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1262" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1262" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1262" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1262" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1263" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1263" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1263" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1263" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1263" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1263" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1263" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1264" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1264" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1264" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1264" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1264" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1264" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1264" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1265" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1265" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1265" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1265" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1265" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1265" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1266" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1266" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1266" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1266" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1266" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1266" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1266" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1267" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1267" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1267" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1267" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1267" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1267" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1267" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1268" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1268" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1268" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1268" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1268" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1268" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1268" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1269" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1269" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1269" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1269" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1269" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1269" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1269" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1270" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1270" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1270" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1270" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1270" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1270" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1270" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1271" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1271" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1271" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1271" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1271" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1271" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1271" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1272" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1272" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1272" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1272" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1272" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1272" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1272" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1273" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1273" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1273" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1273" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1273" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1273" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1273" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1274" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1274" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1274" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1274" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1274" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1274" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1274" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1275" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1275" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1275" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1275" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1275" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1275" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1275" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1276" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1276" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1276" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1276" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1276" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1276" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1276" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1277" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1277" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1277" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1277" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1277" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1277" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1277" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1278" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1278" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1278" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1278" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1278" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1278" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1278" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1279" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1279" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1279" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1279" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1279" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1279" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1279" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1280" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1280" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1280" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1280" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1280" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1280" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1280" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1281" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1281" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1281" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1281" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1281" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1281" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1282" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1282" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1282" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1282" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1282" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1282" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1282" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1283" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1283" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1283" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1283" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1283" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1283" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1283" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1284" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1284" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1284" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1284" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1284" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1284" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1284" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1285" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1285" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1285" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1285" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1285" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1285" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1285" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1286" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1286" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1286" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1286" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1286" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1286" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1286" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1287" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1287" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1287" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1287" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1287" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1287" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1287" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1288" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1288" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1288" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1288" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1288" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1288" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1288" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1289" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1289" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1289" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1289" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1289" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1289" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1289" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1290" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1290" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1290" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1290" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1290" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1290" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1290" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1291" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1291" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1291" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1291" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1291" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1291" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1291" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1292" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1292" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1292" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1292" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1292" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1292" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1292" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1293" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1293" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1293" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1293" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1293" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1293" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1293" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1294" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1294" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1294" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1294" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1294" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1294" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1294" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1295" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1295" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1295" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1295" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1295" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1295" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1295" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1296" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1296" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1296" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1296" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1296" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1296" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1296" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1297" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1297" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1297" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1297" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1297" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1297" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1297" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1298" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1298" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1298" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1298" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1298" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1298" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1298" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1299" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1299" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1299" t="s">
-        <v>492</v>
-      </c>
-      <c r="D1299" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1299" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1299" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1299" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1300" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1300" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1300" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1300" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1300" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1300" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1300" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1301" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1301" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1301" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1301" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1301" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1301" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1302" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1302" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1302" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1302" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1302" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1302" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1302" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1303" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1303" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1303" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1303" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1303" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1303" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1303" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1304" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1304" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1304" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1304" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1304" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1304" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1304" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1305" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1305" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1305" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1305" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1305" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1305" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1305" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1306" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1306" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1306" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1306" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1306" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1306" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1306" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1307" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1307" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1307" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1307" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1307" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1307" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1307" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1308" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1308" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1308" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1308" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1308" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1308" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1308" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1309" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1309" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1309" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1309" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1309" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1309" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1309" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1310" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1310" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1310" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1310" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1310" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1310" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1310" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1311" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1311" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1311" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1311" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1311" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1311" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1311" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1312" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1312" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1312" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1312" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1312" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1312" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1312" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1313" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1313" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1313" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1313" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1313" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1313" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1314" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1314" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1314" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1314" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1314" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1314" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1314" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1315" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1315" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1315" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1315" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1315" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1315" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1315" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1316" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1316" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1316" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1316" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1316" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1316" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1316" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1317" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1317" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1317" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1317" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1317" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1317" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1317" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1318" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1318" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1318" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1318" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1318" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1318" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1318" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1319" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1319" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1319" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1319" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1319" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1319" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1319" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1320" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1320" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1320" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1320" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1320" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1320" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1320" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1321" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1321" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1321" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1321" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1321" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1321" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1321" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1322" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1322" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1322" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1322" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1322" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1322" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1322" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1323" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1323" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1323" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1323" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1323" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1323" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1324" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1324" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1324" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1324" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1324" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1324" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1324" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1325" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1325" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1325" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1325" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1325" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1325" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1325" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1326" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1326" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1326" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1326" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1326" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1326" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1326" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1327" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1327" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1327" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1327" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1327" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1327" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1327" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1328" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1328" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1328" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1328" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1328" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1328" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1328" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1329" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1329" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1329" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1329" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1329" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1329" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1329" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1330" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1330" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1330" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1330" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1330" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1330" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1330" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1331" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1331" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1331" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1331" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1331" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1331" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1331" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1332" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1332" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1332" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1332" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1332" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1332" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1332" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1333" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1333" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1333" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1333" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1333" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1333" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1333" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1334" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1334" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1334" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1334" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1334" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1334" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1334" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1335" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1335" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1335" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1335" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1335" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1335" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1336" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1336" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1336" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1336" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1336" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1336" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1336" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1337" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1337" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1337" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1337" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1337" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1337" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1338" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1338" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1338" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1338" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1338" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1338" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1338" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1339" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1339" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1339" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1339" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1339" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1339" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1339" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1340" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1340" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1340" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1340" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1340" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1340" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1340" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1341" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1341" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1341" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1341" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1341" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1341" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1341" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1342" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1342" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1342" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1342" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1342" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1342" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1342" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1343" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1343" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1343" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1343" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1343" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1343" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1343" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1344" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1344" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1344" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1344" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1344" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1344" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1344" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1345" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1345" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1345" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1345" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1345" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1345" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1345" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1346" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1346" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1346" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1346" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1346" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1346" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1346" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1347" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1347" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1347" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1347" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1347" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1347" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1347" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1348" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1348" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1348" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1348" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1348" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1348" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1348" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1349" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1349" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1349" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1349" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1349" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1349" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1349" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1350" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1350" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1350" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1350" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1350" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1350" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1350" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1351" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1351" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1351" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1351" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1351" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1351" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1351" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1352" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1352" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1352" t="s">
-        <v>484</v>
-      </c>
-      <c r="D1352" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1352" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1352" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1352" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1353" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1353" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1353" t="s">
-        <v>484</v>
-      </c>
-      <c r="D1353" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1353" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1353" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1353" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1354" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1354" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1354" t="s">
-        <v>484</v>
-      </c>
-      <c r="D1354" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1354" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1354" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1354" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1355" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1355" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1355" t="s">
-        <v>484</v>
-      </c>
-      <c r="D1355" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1355" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1355" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1355" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1356" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1356" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1356" t="s">
-        <v>484</v>
-      </c>
-      <c r="D1356" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1356" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1356" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1356" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1357" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1357" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1357" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1357" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1357" t="s">
-        <v>486</v>
-      </c>
-      <c r="F1357" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1357" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1358" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1358" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1358" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1358" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1358" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1358" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1358" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1359" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1359" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1359" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1359" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1359" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1359" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1359" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1360" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1360" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1360" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1360" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1360" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1360" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1360" t="s">
-        <v>452</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G1007" xr:uid="{244146A7-190C-4F54-9984-CB127AC771FE}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
